--- a/Project_list.xlsx
+++ b/Project_list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czambudio\Desktop\Qlik Scripts\DataCamp-examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993EB1C-5FF8-41A7-8182-14592BD282D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACD7CC-E43B-4AC9-A0FC-D64204B98AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46F5046-EB0B-493A-BE77-9596CF67F581}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C46F5046-EB0B-493A-BE77-9596CF67F581}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$BR$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$BT$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
   <si>
     <t>Project</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>MaxPooling2D</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>OneHot</t>
+  </si>
+  <si>
+    <t>ASL Recognition with Deep Learning</t>
+  </si>
+  <si>
+    <t>Comparing Cosmetics by Ingredients</t>
+  </si>
+  <si>
+    <t>TSNE</t>
   </si>
 </sst>
 </file>
@@ -414,13 +429,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -739,125 +757,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE3587D-E08D-4B3F-AFB8-86BF374602BD}">
-  <dimension ref="A1:GF32"/>
+  <dimension ref="A1:GH34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
+      <selection pane="bottomRight" activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="20" width="3.7109375" customWidth="1"/>
-    <col min="21" max="27" width="3.28515625" customWidth="1"/>
-    <col min="28" max="58" width="3.42578125" customWidth="1"/>
-    <col min="59" max="62" width="3.7109375" customWidth="1"/>
-    <col min="63" max="64" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="3.7109375" customWidth="1"/>
-    <col min="66" max="66" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="3.7109375" customWidth="1"/>
-    <col min="69" max="69" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="3.7109375" customWidth="1"/>
-    <col min="72" max="73" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="3.7265625" customWidth="1"/>
+    <col min="21" max="27" width="3.26953125" customWidth="1"/>
+    <col min="28" max="60" width="3.453125" customWidth="1"/>
+    <col min="61" max="64" width="3.7265625" customWidth="1"/>
+    <col min="65" max="66" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3.7265625" customWidth="1"/>
+    <col min="68" max="68" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="3.7265625" customWidth="1"/>
+    <col min="71" max="71" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="3.7265625" customWidth="1"/>
+    <col min="74" max="75" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="3.7265625" customWidth="1"/>
+    <col min="77" max="77" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:190" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3" t="s">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3" t="s">
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3" t="s">
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3" t="s">
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
     </row>
-    <row r="2" spans="1:188" ht="125.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:190" ht="120" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -936,7 +957,9 @@
       <c r="Z2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AB2" s="1" t="s">
         <v>64</v>
       </c>
@@ -959,127 +982,134 @@
         <v>51</v>
       </c>
       <c r="AI2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="BY2" s="1"/>
     </row>
-    <row r="3" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1140,11 +1170,11 @@
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
-      <c r="BG3" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
+      <c r="BI3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
@@ -1272,8 +1302,10 @@
       <c r="GD3" s="2"/>
       <c r="GE3" s="2"/>
       <c r="GF3" s="2"/>
+      <c r="GG3" s="2"/>
+      <c r="GH3" s="2"/>
     </row>
-    <row r="4" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1468,8 +1500,10 @@
       <c r="GD4" s="2"/>
       <c r="GE4" s="2"/>
       <c r="GF4" s="2"/>
+      <c r="GG4" s="2"/>
+      <c r="GH4" s="2"/>
     </row>
-    <row r="5" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1664,8 +1698,10 @@
       <c r="GD5" s="2"/>
       <c r="GE5" s="2"/>
       <c r="GF5" s="2"/>
+      <c r="GG5" s="2"/>
+      <c r="GH5" s="2"/>
     </row>
-    <row r="6" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1862,10 +1898,12 @@
       <c r="GD6" s="2"/>
       <c r="GE6" s="2"/>
       <c r="GF6" s="2"/>
+      <c r="GG6" s="2"/>
+      <c r="GH6" s="2"/>
     </row>
-    <row r="7" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1886,19 +1924,15 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -1914,13 +1948,25 @@
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
+      <c r="AQ7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AU7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -2060,17 +2106,17 @@
       <c r="GD7" s="2"/>
       <c r="GE7" s="2"/>
       <c r="GF7" s="2"/>
+      <c r="GG7" s="2"/>
+      <c r="GH7" s="2"/>
     </row>
-    <row r="8" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2086,12 +2132,16 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="U8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -2101,15 +2151,9 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
@@ -2121,9 +2165,7 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
-      <c r="AV8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
@@ -2131,12 +2173,8 @@
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
-      <c r="BD8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
@@ -2268,17 +2306,19 @@
       <c r="GD8" s="2"/>
       <c r="GE8" s="2"/>
       <c r="GF8" s="2"/>
+      <c r="GG8" s="2"/>
+      <c r="GH8" s="2"/>
     </row>
-    <row r="9" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2297,7 +2337,9 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -2307,10 +2349,16 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
+      <c r="AJ9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
@@ -2323,7 +2371,9 @@
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
+      <c r="AX9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
@@ -2331,11 +2381,13 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BF9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
@@ -2464,26 +2516,22 @@
       <c r="GD9" s="2"/>
       <c r="GE9" s="2"/>
       <c r="GF9" s="2"/>
+      <c r="GG9" s="2"/>
+      <c r="GH9" s="2"/>
     </row>
-    <row r="10" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2508,7 +2556,9 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
+      <c r="AI10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
@@ -2662,17 +2712,19 @@
       <c r="GD10" s="2"/>
       <c r="GE10" s="2"/>
       <c r="GF10" s="2"/>
+      <c r="GG10" s="2"/>
+      <c r="GH10" s="2"/>
     </row>
-    <row r="11" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2728,10 +2780,10 @@
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
-      <c r="BI11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="2"/>
@@ -2858,22 +2910,28 @@
       <c r="GD11" s="2"/>
       <c r="GE11" s="2"/>
       <c r="GF11" s="2"/>
+      <c r="GG11" s="2"/>
+      <c r="GH11" s="2"/>
     </row>
-    <row r="12" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -3052,23 +3110,23 @@
       <c r="GD12" s="2"/>
       <c r="GE12" s="2"/>
       <c r="GF12" s="2"/>
+      <c r="GG12" s="2"/>
+      <c r="GH12" s="2"/>
     </row>
-    <row r="13" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -3080,29 +3138,19 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -3118,9 +3166,7 @@
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
@@ -3134,7 +3180,9 @@
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
+      <c r="BK13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BL13" s="2"/>
       <c r="BM13" s="2"/>
       <c r="BN13" s="2"/>
@@ -3260,13 +3308,17 @@
       <c r="GD13" s="2"/>
       <c r="GE13" s="2"/>
       <c r="GF13" s="2"/>
+      <c r="GG13" s="2"/>
+      <c r="GH13" s="2"/>
     </row>
-    <row r="14" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -3325,9 +3377,7 @@
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
-      <c r="BJ14" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BJ14" s="2"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="2"/>
@@ -3454,10 +3504,12 @@
       <c r="GD14" s="2"/>
       <c r="GE14" s="2"/>
       <c r="GF14" s="2"/>
+      <c r="GG14" s="2"/>
+      <c r="GH14" s="2"/>
     </row>
-    <row r="15" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3465,8 +3517,12 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -3478,24 +3534,32 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+      <c r="AD15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AG15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -3510,13 +3574,13 @@
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
+      <c r="AY15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BC15" s="2"/>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
@@ -3524,9 +3588,7 @@
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
-      <c r="BK15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
@@ -3652,20 +3714,18 @@
       <c r="GD15" s="2"/>
       <c r="GE15" s="2"/>
       <c r="GF15" s="2"/>
+      <c r="GG15" s="2"/>
+      <c r="GH15" s="2"/>
     </row>
-    <row r="16" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3723,7 +3783,9 @@
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
       <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
+      <c r="BL16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BM16" s="2"/>
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
@@ -3848,21 +3910,19 @@
       <c r="GD16" s="2"/>
       <c r="GE16" s="2"/>
       <c r="GF16" s="2"/>
+      <c r="GG16" s="2"/>
+      <c r="GH16" s="2"/>
     </row>
-    <row r="17" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3892,7 +3952,9 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
+      <c r="AK17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
@@ -3912,17 +3974,19 @@
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
       <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
+      <c r="BE17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
-      <c r="BL17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BM17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
@@ -4046,18 +4110,22 @@
       <c r="GD17" s="2"/>
       <c r="GE17" s="2"/>
       <c r="GF17" s="2"/>
+      <c r="GG17" s="2"/>
+      <c r="GH17" s="2"/>
     </row>
-    <row r="18" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -4116,9 +4184,7 @@
       <c r="BJ18" s="2"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
-      <c r="BM18" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BM18" s="2"/>
       <c r="BN18" s="2"/>
       <c r="BO18" s="2"/>
       <c r="BP18" s="2"/>
@@ -4242,17 +4308,23 @@
       <c r="GD18" s="2"/>
       <c r="GE18" s="2"/>
       <c r="GF18" s="2"/>
+      <c r="GG18" s="2"/>
+      <c r="GH18" s="2"/>
     </row>
-    <row r="19" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -4269,9 +4341,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -4289,27 +4359,13 @@
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
-      <c r="AP19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
@@ -4327,7 +4383,9 @@
       <c r="BK19" s="2"/>
       <c r="BL19" s="2"/>
       <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
+      <c r="BN19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BO19" s="2"/>
       <c r="BP19" s="2"/>
       <c r="BQ19" s="2"/>
@@ -4335,9 +4393,7 @@
       <c r="BS19" s="2"/>
       <c r="BT19" s="2"/>
       <c r="BU19" s="2"/>
-      <c r="BV19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BV19" s="2"/>
       <c r="BW19" s="2"/>
       <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
@@ -4452,15 +4508,19 @@
       <c r="GD19" s="2"/>
       <c r="GE19" s="2"/>
       <c r="GF19" s="2"/>
+      <c r="GG19" s="2"/>
+      <c r="GH19" s="2"/>
     </row>
-    <row r="20" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4521,10 +4581,10 @@
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
-      <c r="BN20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BO20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BP20" s="2"/>
       <c r="BQ20" s="2"/>
       <c r="BR20" s="2"/>
@@ -4646,10 +4706,12 @@
       <c r="GD20" s="2"/>
       <c r="GE20" s="2"/>
       <c r="GF20" s="2"/>
+      <c r="GG20" s="2"/>
+      <c r="GH20" s="2"/>
     </row>
-    <row r="21" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4685,37 +4747,41 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
-      <c r="AO21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
+      <c r="AR21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AY21" s="2"/>
-      <c r="AZ21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
@@ -4727,15 +4793,9 @@
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
       <c r="BM21" s="2"/>
-      <c r="BN21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BO21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP21" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
       <c r="BQ21" s="2"/>
       <c r="BR21" s="2"/>
       <c r="BS21" s="2"/>
@@ -4743,7 +4803,9 @@
       <c r="BU21" s="2"/>
       <c r="BV21" s="2"/>
       <c r="BW21" s="2"/>
-      <c r="BX21" s="2"/>
+      <c r="BX21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BY21" s="2"/>
       <c r="BZ21" s="2"/>
       <c r="CA21" s="2"/>
@@ -4856,10 +4918,12 @@
       <c r="GD21" s="2"/>
       <c r="GE21" s="2"/>
       <c r="GF21" s="2"/>
+      <c r="GG21" s="2"/>
+      <c r="GH21" s="2"/>
     </row>
-    <row r="22" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4884,12 +4948,8 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -4899,9 +4959,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
@@ -4923,9 +4981,7 @@
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
-      <c r="BF22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
       <c r="BH22" s="2"/>
       <c r="BI22" s="2"/>
@@ -4935,7 +4991,9 @@
       <c r="BM22" s="2"/>
       <c r="BN22" s="2"/>
       <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
+      <c r="BP22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BQ22" s="2"/>
       <c r="BR22" s="2"/>
       <c r="BS22" s="2"/>
@@ -5056,10 +5114,12 @@
       <c r="GD22" s="2"/>
       <c r="GE22" s="2"/>
       <c r="GF22" s="2"/>
+      <c r="GG22" s="2"/>
+      <c r="GH22" s="2"/>
     </row>
-    <row r="23" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5083,7 +5143,9 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="X23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -5093,7 +5155,9 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
@@ -5101,7 +5165,9 @@
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
+      <c r="AP23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
@@ -5113,9 +5179,15 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
+      <c r="BB23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
@@ -5127,11 +5199,15 @@
       <c r="BM23" s="2"/>
       <c r="BN23" s="2"/>
       <c r="BO23" s="2"/>
-      <c r="BP23" s="2"/>
+      <c r="BP23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BQ23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BR23" s="2"/>
+      <c r="BR23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BS23" s="2"/>
       <c r="BT23" s="2"/>
       <c r="BU23" s="2"/>
@@ -5250,10 +5326,12 @@
       <c r="GD23" s="2"/>
       <c r="GE23" s="2"/>
       <c r="GF23" s="2"/>
+      <c r="GG23" s="2"/>
+      <c r="GH23" s="2"/>
     </row>
-    <row r="24" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5268,15 +5346,9 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -5284,8 +5356,12 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="Y24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -5293,18 +5369,14 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AL24" s="2"/>
-      <c r="AM24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
@@ -5325,7 +5397,9 @@
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
+      <c r="BH24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
       <c r="BK24" s="2"/>
@@ -5454,21 +5528,17 @@
       <c r="GD24" s="2"/>
       <c r="GE24" s="2"/>
       <c r="GF24" s="2"/>
+      <c r="GG24" s="2"/>
+      <c r="GH24" s="2"/>
     </row>
-    <row r="25" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -5534,7 +5604,9 @@
       <c r="BP25" s="2"/>
       <c r="BQ25" s="2"/>
       <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
+      <c r="BS25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BT25" s="2"/>
       <c r="BU25" s="2"/>
       <c r="BV25" s="2"/>
@@ -5652,10 +5724,12 @@
       <c r="GD25" s="2"/>
       <c r="GE25" s="2"/>
       <c r="GF25" s="2"/>
+      <c r="GG25" s="2"/>
+      <c r="GH25" s="2"/>
     </row>
-    <row r="26" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5670,9 +5744,15 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -5685,25 +5765,23 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
+      <c r="AL26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
+      <c r="AN26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
@@ -5713,17 +5791,11 @@
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
-      <c r="AX26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
       <c r="AZ26" s="2"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
@@ -5739,9 +5811,7 @@
       <c r="BO26" s="2"/>
       <c r="BP26" s="2"/>
       <c r="BQ26" s="2"/>
-      <c r="BR26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BR26" s="2"/>
       <c r="BS26" s="2"/>
       <c r="BT26" s="2"/>
       <c r="BU26" s="2"/>
@@ -5860,35 +5930,37 @@
       <c r="GD26" s="2"/>
       <c r="GE26" s="2"/>
       <c r="GF26" s="2"/>
+      <c r="GG26" s="2"/>
+      <c r="GH26" s="2"/>
     </row>
-    <row r="27" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -6058,19 +6130,17 @@
       <c r="GD27" s="2"/>
       <c r="GE27" s="2"/>
       <c r="GF27" s="2"/>
+      <c r="GG27" s="2"/>
+      <c r="GH27" s="2"/>
     </row>
-    <row r="28" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -6095,14 +6165,22 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
+      <c r="AD28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
+      <c r="AF28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
+      <c r="AK28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
@@ -6117,11 +6195,17 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
       <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
+      <c r="AZ28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
+      <c r="BD28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BE28" s="2"/>
       <c r="BF28" s="2"/>
       <c r="BG28" s="2"/>
@@ -6137,7 +6221,9 @@
       <c r="BQ28" s="2"/>
       <c r="BR28" s="2"/>
       <c r="BS28" s="2"/>
-      <c r="BT28" s="2"/>
+      <c r="BT28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BU28" s="2"/>
       <c r="BV28" s="2"/>
       <c r="BW28" s="2"/>
@@ -6254,33 +6340,37 @@
       <c r="GD28" s="2"/>
       <c r="GE28" s="2"/>
       <c r="GF28" s="2"/>
+      <c r="GG28" s="2"/>
+      <c r="GH28" s="2"/>
     </row>
-    <row r="29" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -6293,9 +6383,7 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
@@ -6333,12 +6421,8 @@
       <c r="BO29" s="2"/>
       <c r="BP29" s="2"/>
       <c r="BQ29" s="2"/>
-      <c r="BR29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BS29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
       <c r="BT29" s="2"/>
       <c r="BU29" s="2"/>
       <c r="BV29" s="2"/>
@@ -6456,18 +6540,22 @@
       <c r="GD29" s="2"/>
       <c r="GE29" s="2"/>
       <c r="GF29" s="2"/>
+      <c r="GG29" s="2"/>
+      <c r="GH29" s="2"/>
     </row>
-    <row r="30" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -6533,9 +6621,7 @@
       <c r="BQ30" s="2"/>
       <c r="BR30" s="2"/>
       <c r="BS30" s="2"/>
-      <c r="BT30" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BT30" s="2"/>
       <c r="BU30" s="2"/>
       <c r="BV30" s="2"/>
       <c r="BW30" s="2"/>
@@ -6652,15 +6738,21 @@
       <c r="GD30" s="2"/>
       <c r="GE30" s="2"/>
       <c r="GF30" s="2"/>
+      <c r="GG30" s="2"/>
+      <c r="GH30" s="2"/>
     </row>
-    <row r="31" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -6690,19 +6782,13 @@
       <c r="AF31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
-      <c r="AL31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
@@ -6714,14 +6800,10 @@
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
-      <c r="AY31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
       <c r="BD31" s="2"/>
       <c r="BE31" s="2"/>
@@ -6729,9 +6811,7 @@
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
       <c r="BI31" s="2"/>
-      <c r="BJ31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="BJ31" s="2"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
@@ -6741,8 +6821,12 @@
       <c r="BQ31" s="2"/>
       <c r="BR31" s="2"/>
       <c r="BS31" s="2"/>
-      <c r="BT31" s="2"/>
-      <c r="BU31" s="2"/>
+      <c r="BT31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BV31" s="2"/>
       <c r="BW31" s="2"/>
       <c r="BX31" s="2"/>
@@ -6858,16 +6942,20 @@
       <c r="GD31" s="2"/>
       <c r="GE31" s="2"/>
       <c r="GF31" s="2"/>
+      <c r="GG31" s="2"/>
+      <c r="GH31" s="2"/>
     </row>
-    <row r="32" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -6890,9 +6978,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -6936,10 +7022,10 @@
       <c r="BR32" s="2"/>
       <c r="BS32" s="2"/>
       <c r="BT32" s="2"/>
-      <c r="BU32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BV32" s="2"/>
+      <c r="BU32" s="2"/>
+      <c r="BV32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="BW32" s="2"/>
       <c r="BX32" s="2"/>
       <c r="BY32" s="2"/>
@@ -7054,18 +7140,426 @@
       <c r="GD32" s="2"/>
       <c r="GE32" s="2"/>
       <c r="GF32" s="2"/>
+      <c r="GG32" s="2"/>
+      <c r="GH32" s="2"/>
+    </row>
+    <row r="33" spans="1:190" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="2"/>
+      <c r="BW33" s="2"/>
+      <c r="BX33" s="2"/>
+      <c r="BY33" s="2"/>
+      <c r="BZ33" s="2"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="2"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="2"/>
+      <c r="CJ33" s="2"/>
+      <c r="CK33" s="2"/>
+      <c r="CL33" s="2"/>
+      <c r="CM33" s="2"/>
+      <c r="CN33" s="2"/>
+      <c r="CO33" s="2"/>
+      <c r="CP33" s="2"/>
+      <c r="CQ33" s="2"/>
+      <c r="CR33" s="2"/>
+      <c r="CS33" s="2"/>
+      <c r="CT33" s="2"/>
+      <c r="CU33" s="2"/>
+      <c r="CV33" s="2"/>
+      <c r="CW33" s="2"/>
+      <c r="CX33" s="2"/>
+      <c r="CY33" s="2"/>
+      <c r="CZ33" s="2"/>
+      <c r="DA33" s="2"/>
+      <c r="DB33" s="2"/>
+      <c r="DC33" s="2"/>
+      <c r="DD33" s="2"/>
+      <c r="DE33" s="2"/>
+      <c r="DF33" s="2"/>
+      <c r="DG33" s="2"/>
+      <c r="DH33" s="2"/>
+      <c r="DI33" s="2"/>
+      <c r="DJ33" s="2"/>
+      <c r="DK33" s="2"/>
+      <c r="DL33" s="2"/>
+      <c r="DM33" s="2"/>
+      <c r="DN33" s="2"/>
+      <c r="DO33" s="2"/>
+      <c r="DP33" s="2"/>
+      <c r="DQ33" s="2"/>
+      <c r="DR33" s="2"/>
+      <c r="DS33" s="2"/>
+      <c r="DT33" s="2"/>
+      <c r="DU33" s="2"/>
+      <c r="DV33" s="2"/>
+      <c r="DW33" s="2"/>
+      <c r="DX33" s="2"/>
+      <c r="DY33" s="2"/>
+      <c r="DZ33" s="2"/>
+      <c r="EA33" s="2"/>
+      <c r="EB33" s="2"/>
+      <c r="EC33" s="2"/>
+      <c r="ED33" s="2"/>
+      <c r="EE33" s="2"/>
+      <c r="EF33" s="2"/>
+      <c r="EG33" s="2"/>
+      <c r="EH33" s="2"/>
+      <c r="EI33" s="2"/>
+      <c r="EJ33" s="2"/>
+      <c r="EK33" s="2"/>
+      <c r="EL33" s="2"/>
+      <c r="EM33" s="2"/>
+      <c r="EN33" s="2"/>
+      <c r="EO33" s="2"/>
+      <c r="EP33" s="2"/>
+      <c r="EQ33" s="2"/>
+      <c r="ER33" s="2"/>
+      <c r="ES33" s="2"/>
+      <c r="ET33" s="2"/>
+      <c r="EU33" s="2"/>
+      <c r="EV33" s="2"/>
+      <c r="EW33" s="2"/>
+      <c r="EX33" s="2"/>
+      <c r="EY33" s="2"/>
+      <c r="EZ33" s="2"/>
+      <c r="FA33" s="2"/>
+      <c r="FB33" s="2"/>
+      <c r="FC33" s="2"/>
+      <c r="FD33" s="2"/>
+      <c r="FE33" s="2"/>
+      <c r="FF33" s="2"/>
+      <c r="FG33" s="2"/>
+      <c r="FH33" s="2"/>
+      <c r="FI33" s="2"/>
+      <c r="FJ33" s="2"/>
+      <c r="FK33" s="2"/>
+      <c r="FL33" s="2"/>
+      <c r="FM33" s="2"/>
+      <c r="FN33" s="2"/>
+      <c r="FO33" s="2"/>
+      <c r="FP33" s="2"/>
+      <c r="FQ33" s="2"/>
+      <c r="FR33" s="2"/>
+      <c r="FS33" s="2"/>
+      <c r="FT33" s="2"/>
+      <c r="FU33" s="2"/>
+      <c r="FV33" s="2"/>
+      <c r="FW33" s="2"/>
+      <c r="FX33" s="2"/>
+      <c r="FY33" s="2"/>
+      <c r="FZ33" s="2"/>
+      <c r="GA33" s="2"/>
+      <c r="GB33" s="2"/>
+      <c r="GC33" s="2"/>
+      <c r="GD33" s="2"/>
+      <c r="GE33" s="2"/>
+      <c r="GF33" s="2"/>
+      <c r="GG33" s="2"/>
+      <c r="GH33" s="2"/>
+    </row>
+    <row r="34" spans="1:190" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="2"/>
+      <c r="BW34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX34" s="2"/>
+      <c r="BY34" s="2"/>
+      <c r="BZ34" s="2"/>
+      <c r="CA34" s="2"/>
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="2"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+      <c r="CF34" s="2"/>
+      <c r="CG34" s="2"/>
+      <c r="CH34" s="2"/>
+      <c r="CI34" s="2"/>
+      <c r="CJ34" s="2"/>
+      <c r="CK34" s="2"/>
+      <c r="CL34" s="2"/>
+      <c r="CM34" s="2"/>
+      <c r="CN34" s="2"/>
+      <c r="CO34" s="2"/>
+      <c r="CP34" s="2"/>
+      <c r="CQ34" s="2"/>
+      <c r="CR34" s="2"/>
+      <c r="CS34" s="2"/>
+      <c r="CT34" s="2"/>
+      <c r="CU34" s="2"/>
+      <c r="CV34" s="2"/>
+      <c r="CW34" s="2"/>
+      <c r="CX34" s="2"/>
+      <c r="CY34" s="2"/>
+      <c r="CZ34" s="2"/>
+      <c r="DA34" s="2"/>
+      <c r="DB34" s="2"/>
+      <c r="DC34" s="2"/>
+      <c r="DD34" s="2"/>
+      <c r="DE34" s="2"/>
+      <c r="DF34" s="2"/>
+      <c r="DG34" s="2"/>
+      <c r="DH34" s="2"/>
+      <c r="DI34" s="2"/>
+      <c r="DJ34" s="2"/>
+      <c r="DK34" s="2"/>
+      <c r="DL34" s="2"/>
+      <c r="DM34" s="2"/>
+      <c r="DN34" s="2"/>
+      <c r="DO34" s="2"/>
+      <c r="DP34" s="2"/>
+      <c r="DQ34" s="2"/>
+      <c r="DR34" s="2"/>
+      <c r="DS34" s="2"/>
+      <c r="DT34" s="2"/>
+      <c r="DU34" s="2"/>
+      <c r="DV34" s="2"/>
+      <c r="DW34" s="2"/>
+      <c r="DX34" s="2"/>
+      <c r="DY34" s="2"/>
+      <c r="DZ34" s="2"/>
+      <c r="EA34" s="2"/>
+      <c r="EB34" s="2"/>
+      <c r="EC34" s="2"/>
+      <c r="ED34" s="2"/>
+      <c r="EE34" s="2"/>
+      <c r="EF34" s="2"/>
+      <c r="EG34" s="2"/>
+      <c r="EH34" s="2"/>
+      <c r="EI34" s="2"/>
+      <c r="EJ34" s="2"/>
+      <c r="EK34" s="2"/>
+      <c r="EL34" s="2"/>
+      <c r="EM34" s="2"/>
+      <c r="EN34" s="2"/>
+      <c r="EO34" s="2"/>
+      <c r="EP34" s="2"/>
+      <c r="EQ34" s="2"/>
+      <c r="ER34" s="2"/>
+      <c r="ES34" s="2"/>
+      <c r="ET34" s="2"/>
+      <c r="EU34" s="2"/>
+      <c r="EV34" s="2"/>
+      <c r="EW34" s="2"/>
+      <c r="EX34" s="2"/>
+      <c r="EY34" s="2"/>
+      <c r="EZ34" s="2"/>
+      <c r="FA34" s="2"/>
+      <c r="FB34" s="2"/>
+      <c r="FC34" s="2"/>
+      <c r="FD34" s="2"/>
+      <c r="FE34" s="2"/>
+      <c r="FF34" s="2"/>
+      <c r="FG34" s="2"/>
+      <c r="FH34" s="2"/>
+      <c r="FI34" s="2"/>
+      <c r="FJ34" s="2"/>
+      <c r="FK34" s="2"/>
+      <c r="FL34" s="2"/>
+      <c r="FM34" s="2"/>
+      <c r="FN34" s="2"/>
+      <c r="FO34" s="2"/>
+      <c r="FP34" s="2"/>
+      <c r="FQ34" s="2"/>
+      <c r="FR34" s="2"/>
+      <c r="FS34" s="2"/>
+      <c r="FT34" s="2"/>
+      <c r="FU34" s="2"/>
+      <c r="FV34" s="2"/>
+      <c r="FW34" s="2"/>
+      <c r="FX34" s="2"/>
+      <c r="FY34" s="2"/>
+      <c r="FZ34" s="2"/>
+      <c r="GA34" s="2"/>
+      <c r="GB34" s="2"/>
+      <c r="GC34" s="2"/>
+      <c r="GD34" s="2"/>
+      <c r="GE34" s="2"/>
+      <c r="GF34" s="2"/>
+      <c r="GG34" s="2"/>
+      <c r="GH34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="BG1:BS1"/>
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="BI1:BU1"/>
+    <mergeCell ref="AR1:AW1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="AH1:AP1"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="AB1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
